--- a/biology/Botanique/Apera/Apera.xlsx
+++ b/biology/Botanique/Apera/Apera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apera est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie, comprenant cinq espèces.
 </t>
@@ -511,12 +523,14 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Apera fut décrit par le botaniste français, Michel Adanson, et publié dans son Familles des Plantes 2: 495. en 1763[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Apera fut décrit par le botaniste français, Michel Adanson, et publié dans son Familles des Plantes 2: 495. en 1763.
 L'espèce-type est Apera spica-venti.
 Étymologie
-Le nom générique Apera dériverait d'une racine grecque peros  (mutilé) précédée du préfixe -a (privatif), en référence à l'épillet semblable à ceux du genre Calamagrostis, mais qui compte souvent deux fleurons et est donc moins réduit que ceux-ci, ce qui permit à Michel Adanson de distinguer ce genre. Une autre hypothèse serait que Michel Adanson aurait choisi un nom sans signification particulière pour des raisons d'euphonie[3].
+Le nom générique Apera dériverait d'une racine grecque peros  (mutilé) précédée du préfixe -a (privatif), en référence à l'épillet semblable à ceux du genre Calamagrostis, mais qui compte souvent deux fleurons et est donc moins réduit que ceux-ci, ce qui permit à Michel Adanson de distinguer ce genre. Une autre hypothèse serait que Michel Adanson aurait choisi un nom sans signification particulière pour des raisons d'euphonie.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (6 novembre 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (6 novembre 2017) :
 Apera baytopiana Dogan
 Apera intermedia Hack.
 Apera interrupta (L.) P.Beauv.
